--- a/tests/testing_files/conversion_unused_test.xlsx
+++ b/tests/testing_files/conversion_unused_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sparda\Desktop\Moseley Lab\Code\MESSES\tests\testing_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3BF513-324C-43F2-A539-8F1BCCADC71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C54E55-E62A-411D-9C7B-24AD3DE5BC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2655" windowWidth="23640" windowHeight="12015" xr2:uid="{15FD60AA-0CC8-9F4F-B5F4-2B27D5230080}"/>
+    <workbookView xWindow="4155" yWindow="2340" windowWidth="23640" windowHeight="12015" xr2:uid="{15FD60AA-0CC8-9F4F-B5F4-2B27D5230080}"/>
   </bookViews>
   <sheets>
     <sheet name="#convert" sheetId="6" r:id="rId1"/>
@@ -257,10 +257,10 @@
     <t>compound1</t>
   </si>
   <si>
-    <t>#unique=false</t>
-  </si>
-  <si>
     <t>#measurement.compound</t>
+  </si>
+  <si>
+    <t>#match=all</t>
   </si>
 </sst>
 </file>
@@ -639,7 +639,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -661,7 +661,7 @@
         <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -812,7 +812,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
